--- a/backend/gym_routine_master.xlsx
+++ b/backend/gym_routine_master.xlsx
@@ -535,12 +535,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[10, 10, 7.5]</t>
+          <t>[7.5, 7.5, 5]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -579,12 +579,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[10, 10, 10]</t>
+          <t>[10, 5, 5]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Overhead Tricep Extension (DB)</t>
+          <t>Overhead Tricep Extension (Cable)</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -623,12 +623,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[24.0, 22.0, 20.0, 18.0]</t>
+          <t>[65, 60, 55, 50]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -667,12 +667,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[10, 10, 10, 8]</t>
+          <t>[8, 7, 6, 6]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[20.0, 17.5, 15.0, 12.5]</t>
+          <t>[85, 80, 75, 70]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -755,12 +755,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[5, 5, 3.75, 3.75]</t>
+          <t>[3.75, 3.75, 2.5, 2.5]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[70.0, 67.5, 65.0]</t>
+          <t>[70, 60, 50]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[57.0, 54.5, 52.0]</t>
+          <t>[47, 42, 37]</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[25, 25, 22.5]</t>
+          <t>[20, 17.5, 15]</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>[7.5, 7.5, 5]</t>
+          <t>[3.75, 2.5, 2.5]</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1367,12 +1367,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>[24.0, 22.0, 20.0]</t>
+          <t>[24, 22, 20]</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>[105.0, 100.0, 95.0]</t>
+          <t>[105, 95, 85]</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1733,7 +1733,7 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>[45.0, 42.5, 40.0]</t>
+          <t>[45, 35, 35]</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1777,7 +1777,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>[35.0, 32.5, 30.0]</t>
+          <t>[21, 21, 14]</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="I32" t="n">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>[45.0, 42.5, 40.0]</t>
+          <t>[40, 35, 30]</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1865,7 +1865,7 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>[50.0, 45.0, 40.0, 35.0]</t>
+          <t>[50, 45, 40]</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1944,7 +1944,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>[10, 10, 8.75]</t>
+          <t>[10, 5, 5]</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1953,7 +1953,7 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1.25</v>
+        <v>5</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>[35.0, 32.5, 30.0]</t>
+          <t>[50, 45, 40]</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1997,7 +1997,7 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="J36" t="inlineStr"/>
     </row>
@@ -2028,7 +2028,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>[30.0, 28.0, 26.0]</t>
+          <t>[26, 26, 22]</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>[24.0, 22.0, 20.0]</t>
+          <t>[22, 20, 20]</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2108,7 +2108,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>[47.0, 44.5, 42.0]</t>
+          <t>[47, 42, 37]</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2117,7 +2117,7 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="J39" t="inlineStr"/>
     </row>
@@ -2148,7 +2148,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>[50.0, 47.5, 45.0]</t>
+          <t>[50, 45, 40]</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2571,11 +2571,11 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Overhead DB Tricep Ext</t>
+          <t>Overhead Cable Tricep Ext</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>[24.0, 22.0, 20.0]</t>
+          <t>[65, 60, 55, 50]</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2593,7 +2593,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -2615,11 +2615,11 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Open DB Curls</t>
+          <t>Open Cable Curls</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>[18, 18, 16]</t>
+          <t>[20, 20, 17.5, 15]</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -2663,7 +2663,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2672,7 +2672,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>[20.0, 17.5, 15.0]</t>
+          <t>[85, 75, 70, 65]</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2707,7 +2707,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>[18, 18, 16]</t>
+          <t>[18, 18, 16, 16]</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2725,7 +2725,7 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>[10, 10, 8]</t>
+          <t>[8, 7, 6]</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2804,7 +2804,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>[25, 25, 22.5]</t>
+          <t>[55, 50, 45]</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2848,7 +2848,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>[5, 5, 3.75]</t>
+          <t>[3.75, 2.5, 2.5]</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -2892,7 +2892,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>[5, 5, 3.75]</t>
+          <t>[3.75, 2.5, 2.5]</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
